--- a/Data/Burundi final.xlsx
+++ b/Data/Burundi final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E4651B-B18B-4C1D-B06D-3D3D96B6753E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863E7049-1D9A-4452-AF89-6EA918B0B8E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="263">
   <si>
     <t>Name_ID</t>
   </si>
@@ -1032,53 +1032,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1210,7 +1163,32 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1252,6 +1230,13 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1285,20 +1270,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1377,6 +1348,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -1632,27 +1632,27 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G4" xr:uid="{864CDD6B-12DB-4E16-9534-F378F26389A1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20607441-2822-4CBC-811D-6A720D2C0079}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20607441-2822-4CBC-811D-6A720D2C0079}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A1:E28" xr:uid="{A087B6AD-DA33-423B-AC5A-C78EC6ECE7C3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{70E6D459-D65C-49D5-AFD8-F2C8B94F172C}" name="Warehouse" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{53F8F05A-C7EF-4F2A-9371-0AD6A3308910}" name="Plate Nr" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D336F1A3-312C-438B-BB6E-7B78105D614F}" name="Make" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BC7DFCB7-A6F5-467D-9332-84EA184D4680}" name="Model" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{FA060E72-4F17-4F75-A82D-558D419C0895}" name="Capacity in MT" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{70E6D459-D65C-49D5-AFD8-F2C8B94F172C}" name="Warehouse" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{53F8F05A-C7EF-4F2A-9371-0AD6A3308910}" name="Plate Nr" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D336F1A3-312C-438B-BB6E-7B78105D614F}" name="Make" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BC7DFCB7-A6F5-467D-9332-84EA184D4680}" name="Model" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{FA060E72-4F17-4F75-A82D-558D419C0895}" name="Capacity in MT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9265,8 +9265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5307C4E-D51E-4E16-960B-CB790613AD8F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -9380,7 +9380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537D82F5-E5C4-4F7A-919C-4E3C89A011D5}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>

--- a/Data/Burundi final.xlsx
+++ b/Data/Burundi final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863E7049-1D9A-4452-AF89-6EA918B0B8E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA37662E-2AAC-43A4-BCF8-119C3EFA28D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="98" yWindow="795" windowWidth="21607" windowHeight="10515" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
@@ -129,12 +129,6 @@
     <t>Total Sum of Commodities</t>
   </si>
   <si>
-    <t>Consumption per day in mt</t>
-  </si>
-  <si>
-    <t>Consumption per week in mt</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -904,6 +898,12 @@
   </si>
   <si>
     <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Consumption per day in MT</t>
+  </si>
+  <si>
+    <t>Consumption per week in MT</t>
   </si>
 </sst>
 </file>
@@ -1615,8 +1615,8 @@
     <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="28"/>
     <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="27"/>
     <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in mt" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in mt" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in MT" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in MT" dataDxfId="24"/>
     <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="23"/>
     <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="22"/>
     <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="21"/>
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65252ADD-2539-421B-8440-8530B4AE7D99}">
   <dimension ref="A1:K208"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1982,33 +1982,33 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>409</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>556</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>664</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>646</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>866</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>1160</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>548</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>551</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>535</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>348</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>941</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>582</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>1252</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>787</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>720</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>688</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>597</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>1298</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>1082</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>970</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>1224</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>1134</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
         <v>641</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
         <v>535</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <v>828</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1">
         <v>824</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1">
         <v>694</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1">
         <v>909</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1">
         <v>785</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>1362</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1">
         <v>1242</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1">
         <v>710</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
         <v>748</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1">
         <v>359</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1">
         <v>796</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1">
         <v>963</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1">
         <v>614</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1">
         <v>1200</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1">
         <v>809</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1">
         <v>716</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1">
         <v>442</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1">
         <v>358</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1">
         <v>563</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1">
         <v>985</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1">
         <v>1577</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1">
         <v>652</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1">
         <v>883</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1">
         <v>824</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1">
         <v>323</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1">
         <v>611</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1">
         <v>884</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1">
         <v>928</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1">
         <v>428</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1">
         <v>391</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1">
         <v>397</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1">
         <v>515</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1">
         <v>987</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1">
         <v>879</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1">
         <v>1105</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B61" s="1">
         <v>677</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1">
         <v>1310</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1">
         <v>704</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1">
         <v>705</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1">
         <v>560</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1">
         <v>333</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1">
         <v>871</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B68" s="1">
         <v>761</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B69" s="1">
         <v>778</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B70" s="1">
         <v>754</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B71" s="1">
         <v>582</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B72" s="1">
         <v>303</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B73" s="1">
         <v>1525</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B74" s="1">
         <v>865</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B75" s="1">
         <v>428</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B76" s="1">
         <v>822</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1">
         <v>653</v>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B78" s="1">
         <v>1046</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B79" s="1">
         <v>570</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B80" s="1">
         <v>701</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B81" s="1">
         <v>950</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B82" s="1">
         <v>634</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B83" s="1">
         <v>590</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B84" s="1">
         <v>528</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B85" s="1">
         <v>866</v>
@@ -4948,7 +4948,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B86" s="1">
         <v>796</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B87" s="1">
         <v>237</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B88" s="1">
         <v>515</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B89" s="1">
         <v>915</v>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B90" s="1">
         <v>703</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B91" s="1">
         <v>638</v>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B92" s="1">
         <v>722</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B93" s="1">
         <v>528</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B94" s="1">
         <v>816</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B95" s="1">
         <v>88</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B96" s="1">
         <v>610</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B97" s="1">
         <v>442</v>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B98" s="1">
         <v>266</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B99" s="1">
         <v>449</v>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B100" s="1">
         <v>516</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B101" s="1">
         <v>830</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B102" s="1">
         <v>644</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B103" s="1">
         <v>606</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B104" s="1">
         <v>408</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B105" s="1">
         <v>615</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B106" s="1">
         <v>1095</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B107" s="1">
         <v>393</v>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B108" s="1">
         <v>1293</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B109" s="1">
         <v>1185</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B110" s="1">
         <v>1067</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111" s="1">
         <v>1172</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B112" s="1">
         <v>974</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B113" s="1">
         <v>485</v>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B114" s="1">
         <v>565</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B115" s="1">
         <v>475</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B116" s="1">
         <v>964</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B117" s="1">
         <v>1327</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B118" s="1">
         <v>619</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B119" s="1">
         <v>904</v>
@@ -6138,7 +6138,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B120" s="1">
         <v>750</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B121" s="1">
         <v>1119</v>
@@ -6208,7 +6208,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B122" s="1">
         <v>632</v>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B123" s="1">
         <v>845</v>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B124" s="1">
         <v>1314</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B125" s="1">
         <v>904</v>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B126" s="1">
         <v>1940</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B127" s="1">
         <v>716</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B128" s="1">
         <v>746</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B129" s="1">
         <v>577</v>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B130" s="1">
         <v>723</v>
@@ -6523,7 +6523,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B131" s="1">
         <v>699</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B132" s="1">
         <v>635</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B133" s="1">
         <v>1168</v>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B134" s="1">
         <v>590</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B135" s="1">
         <v>847</v>
@@ -6698,7 +6698,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B136" s="1">
         <v>848</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B137" s="1">
         <v>708</v>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B138" s="1">
         <v>903</v>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B139" s="1">
         <v>635</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B140" s="1">
         <v>1336</v>
@@ -6873,7 +6873,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B141" s="1">
         <v>933</v>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B142" s="1">
         <v>468</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B143" s="1">
         <v>1008</v>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B144" s="1">
         <v>1432</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B145" s="1">
         <v>731</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B146" s="1">
         <v>1084</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B147" s="1">
         <v>1052</v>
@@ -7118,7 +7118,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B148" s="1">
         <v>660</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B149" s="1">
         <v>577</v>
@@ -7188,7 +7188,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B150" s="1">
         <v>389</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B151" s="1">
         <v>1103</v>
@@ -7258,7 +7258,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B152" s="1">
         <v>1218</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B153" s="1">
         <v>960</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B154" s="1">
         <v>402</v>
@@ -7363,7 +7363,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B155" s="1">
         <v>788</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B156" s="1">
         <v>668</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B157" s="1">
         <v>705</v>
@@ -7468,7 +7468,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B158" s="1">
         <v>960</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B159" s="1">
         <v>812</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B160" s="1">
         <v>939</v>
@@ -7573,7 +7573,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B161" s="1">
         <v>611</v>
@@ -7608,7 +7608,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B162" s="1">
         <v>719</v>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B163" s="1">
         <v>759</v>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B164" s="1">
         <v>709</v>
@@ -7713,7 +7713,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B165" s="1">
         <v>724</v>
@@ -7748,7 +7748,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B166" s="1">
         <v>701</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B167" s="1">
         <v>690</v>
@@ -7818,7 +7818,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B168" s="1">
         <v>505</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B169" s="1">
         <v>532</v>
@@ -7888,7 +7888,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B170" s="1">
         <v>772</v>
@@ -7923,7 +7923,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B171" s="1">
         <v>877</v>
@@ -7958,7 +7958,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B172" s="1">
         <v>1013</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B173" s="1">
         <v>538</v>
@@ -8028,7 +8028,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B174" s="1">
         <v>463</v>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B175" s="1">
         <v>535</v>
@@ -8098,7 +8098,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B176" s="1">
         <v>984</v>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B177" s="1">
         <v>669</v>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B178" s="1">
         <v>494</v>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B179" s="1">
         <v>528</v>
@@ -8238,7 +8238,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B180" s="1">
         <v>341</v>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B181" s="1">
         <v>836</v>
@@ -8308,7 +8308,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B182" s="1">
         <v>1742</v>
@@ -8343,7 +8343,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B183" s="1">
         <v>682</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B184" s="1">
         <v>665</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B185" s="1">
         <v>758</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B186" s="1">
         <v>847</v>
@@ -8483,7 +8483,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B187" s="1">
         <v>2463</v>
@@ -8518,7 +8518,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B188" s="1">
         <v>298</v>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B189" s="1">
         <v>1680</v>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B190" s="1">
         <v>1150</v>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B191" s="1">
         <v>530</v>
@@ -8658,7 +8658,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B192" s="1">
         <v>577</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B193" s="1">
         <v>749</v>
@@ -8728,7 +8728,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B194" s="1">
         <v>524</v>
@@ -8763,7 +8763,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B195" s="1">
         <v>874</v>
@@ -8798,7 +8798,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B196" s="1">
         <v>824</v>
@@ -8833,7 +8833,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B197" s="1">
         <v>905</v>
@@ -8868,7 +8868,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B198" s="1">
         <v>268</v>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B199" s="1">
         <v>905</v>
@@ -8938,7 +8938,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B200" s="1">
         <v>630</v>
@@ -8973,7 +8973,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B201" s="1">
         <v>600</v>
@@ -9008,7 +9008,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B202" s="1">
         <v>618</v>
@@ -9043,7 +9043,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B203" s="1">
         <v>1475</v>
@@ -9078,7 +9078,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B204" s="1">
         <v>1087</v>
@@ -9113,7 +9113,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B205" s="1">
         <v>461</v>
@@ -9148,7 +9148,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B206" s="1">
         <v>1245</v>
@@ -9183,7 +9183,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B207" s="1">
         <v>690</v>
@@ -9218,7 +9218,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B208" s="1">
         <v>821</v>
@@ -9265,7 +9265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5307C4E-D51E-4E16-960B-CB790613AD8F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -9281,27 +9281,27 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B2" s="1">
         <v>-3.36</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="1">
         <v>-2.911</v>
@@ -9347,7 +9347,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B4" s="1">
         <v>-3.4279999999999999</v>
@@ -9393,33 +9393,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E2" s="9">
         <v>18</v>
@@ -9427,16 +9427,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E3" s="9">
         <v>18</v>
@@ -9444,16 +9444,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E4" s="9">
         <v>8</v>
@@ -9461,16 +9461,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E5" s="9">
         <v>8</v>
@@ -9478,16 +9478,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E6" s="9">
         <v>8</v>
@@ -9495,13 +9495,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -9512,16 +9512,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="E8" s="9">
         <v>1.5</v>
@@ -9529,13 +9529,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -9546,16 +9546,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E10" s="9">
         <v>18</v>
@@ -9563,16 +9563,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E11" s="9">
         <v>8</v>
@@ -9580,13 +9580,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
@@ -9597,13 +9597,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
@@ -9614,13 +9614,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
@@ -9631,13 +9631,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
@@ -9648,13 +9648,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D16" s="5">
         <v>0</v>
@@ -9665,13 +9665,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D17" s="5">
         <v>0</v>
@@ -9682,16 +9682,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E18" s="9">
         <v>1.5</v>
@@ -9699,16 +9699,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E19" s="9">
         <v>1.5</v>
@@ -9716,16 +9716,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E20" s="9">
         <v>18</v>
@@ -9733,16 +9733,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="C21" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E21" s="9">
         <v>18</v>
@@ -9750,16 +9750,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E22" s="9">
         <v>18</v>
@@ -9767,16 +9767,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E23" s="9">
         <v>8</v>
@@ -9784,16 +9784,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E24" s="9">
         <v>8</v>
@@ -9801,13 +9801,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D25" s="5">
         <v>0</v>
@@ -9818,13 +9818,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D26" s="5">
         <v>0</v>
@@ -9835,16 +9835,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E27" s="9">
         <v>1.5</v>
@@ -9852,13 +9852,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D28" s="5">
         <v>0</v>
